--- a/data_files/Vibrio_other_2018.xlsx
+++ b/data_files/Vibrio_other_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokey\Documents\NSS\Projects\capstone_project\Foodborne_Illness\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6769DB19-4044-41AB-B571-9C33834E8B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4E73F1-210F-4EB9-B981-87C3D7BD3E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
   <si>
     <t>Hospitalized with sepsis in ICU</t>
   </si>
@@ -1201,7 +1201,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1276,7 +1276,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1805,7 +1804,7 @@
       <c r="B5" s="56"/>
     </row>
     <row r="6" spans="2:10" ht="43.75">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="138" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1821,12 +1820,12 @@
       <c r="B9" s="56"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="76" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="29.15">
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="83" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1839,7 +1838,7 @@
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="78"/>
+      <c r="B14" s="77"/>
     </row>
     <row r="15" spans="2:10" ht="29.15">
       <c r="B15" s="56" t="s">
@@ -1859,7 +1858,9 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
@@ -1922,14 +1923,14 @@
       <c r="E4" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="141" t="s">
+      <c r="F4" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="141" t="s">
+      <c r="G4" s="141"/>
+      <c r="H4" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="143"/>
+      <c r="I4" s="142"/>
       <c r="J4" s="60" t="s">
         <v>27</v>
       </c>
@@ -1941,20 +1942,22 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63" t="s">
+      <c r="E5" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="65" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7"/>
@@ -1963,7 +1966,7 @@
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
@@ -2046,7 +2049,7 @@
         <v>10953.682946956358</v>
       </c>
       <c r="J10" s="35"/>
-      <c r="L10" s="83"/>
+      <c r="L10" s="82"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1"/>
@@ -2068,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="35"/>
-      <c r="L11" s="83"/>
+      <c r="L11" s="82"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1"/>
@@ -2090,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="16"/>
-      <c r="L12" s="83"/>
+      <c r="L12" s="82"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1"/>
@@ -2110,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="16"/>
-      <c r="L13" s="83"/>
+      <c r="L13" s="82"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1"/>
@@ -2132,7 +2135,7 @@
         <v>10953.682946956358</v>
       </c>
       <c r="J14" s="16"/>
-      <c r="L14" s="83"/>
+      <c r="L14" s="82"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1"/>
@@ -2142,7 +2145,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="17"/>
       <c r="J15" s="16"/>
-      <c r="L15" s="83"/>
+      <c r="L15" s="82"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
@@ -2157,7 +2160,7 @@
         <f>J7*'Vibrio Other Assumptions 2018'!M36</f>
         <v>77620931.903946921</v>
       </c>
-      <c r="L16" s="83"/>
+      <c r="L16" s="82"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1"/>
@@ -2167,7 +2170,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="31"/>
       <c r="J17" s="16"/>
-      <c r="L17" s="83"/>
+      <c r="L17" s="82"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
@@ -2191,7 +2194,7 @@
         <v>39169.452240100763</v>
       </c>
       <c r="J18" s="9"/>
-      <c r="L18" s="83"/>
+      <c r="L18" s="82"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
@@ -2204,7 +2207,7 @@
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="67" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="24"/>
@@ -2240,7 +2243,7 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="68" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="38"/>
@@ -2255,7 +2258,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
       <c r="J22" s="46"/>
-      <c r="L22" s="82"/>
+      <c r="L22" s="81"/>
     </row>
     <row r="23" spans="1:12" ht="15" thickTop="1">
       <c r="E23" s="3"/>
@@ -2277,20 +2280,20 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="105" customHeight="1">
-      <c r="A26" s="144" t="s">
+      <c r="A26" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
     </row>
     <row r="28" spans="1:12" ht="20.399999999999999" customHeight="1">
       <c r="A28" t="s">
@@ -2299,48 +2302,48 @@
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1"/>
     <row r="30" spans="1:12">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="140"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
     </row>
     <row r="31" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A31" s="85"/>
-      <c r="C31" s="140" t="s">
+      <c r="A31" s="84"/>
+      <c r="C31" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="140"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
     </row>
     <row r="32" spans="1:12">
       <c r="C32" s="56"/>
     </row>
     <row r="33" spans="3:11" ht="37.5" customHeight="1">
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2401,18 +2404,18 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="59"/>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="141" t="s">
+      <c r="F4" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="141" t="s">
+      <c r="G4" s="141"/>
+      <c r="H4" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="142"/>
-      <c r="J4" s="70" t="s">
+      <c r="I4" s="141"/>
+      <c r="J4" s="69" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2424,19 +2427,19 @@
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
       <c r="E5" s="60"/>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="65" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="5"/>
@@ -2679,7 +2682,7 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="67" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="33"/>
@@ -2714,7 +2717,7 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="68" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="38"/>
@@ -2750,20 +2753,20 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="105" customHeight="1">
-      <c r="A26" s="144" t="s">
+      <c r="A26" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
     </row>
     <row r="28" spans="1:12" ht="20.399999999999999" customHeight="1">
       <c r="A28" t="s">
@@ -2772,48 +2775,48 @@
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1"/>
     <row r="30" spans="1:12">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="140"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
     </row>
     <row r="31" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A31" s="85"/>
-      <c r="C31" s="140" t="s">
+      <c r="A31" s="84"/>
+      <c r="C31" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="140"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
     </row>
     <row r="32" spans="1:12">
       <c r="C32" s="56"/>
     </row>
     <row r="33" spans="3:11" ht="37.5" customHeight="1">
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2874,42 +2877,42 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="59"/>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="141" t="s">
+      <c r="F4" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="141" t="s">
+      <c r="G4" s="141"/>
+      <c r="H4" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="142"/>
+      <c r="I4" s="141"/>
       <c r="J4" s="60" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="58.75">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
       <c r="D5" s="30"/>
       <c r="E5" s="60"/>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="74" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3142,7 +3145,7 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="67" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="33"/>
@@ -3177,7 +3180,7 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="68" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="38"/>
@@ -3213,20 +3216,20 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="105" customHeight="1">
-      <c r="A26" s="144" t="s">
+      <c r="A26" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
     </row>
     <row r="28" spans="1:12" ht="20.399999999999999" customHeight="1">
       <c r="A28" t="s">
@@ -3235,48 +3238,48 @@
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1"/>
     <row r="30" spans="1:12">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="140"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
     </row>
     <row r="31" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A31" s="85"/>
-      <c r="C31" s="140" t="s">
+      <c r="A31" s="84"/>
+      <c r="C31" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="140"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
     </row>
     <row r="32" spans="1:12">
       <c r="C32" s="56"/>
     </row>
     <row r="33" spans="3:11" ht="37.5" customHeight="1">
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3323,844 +3326,844 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="86"/>
-      <c r="E2" s="68" t="s">
+      <c r="A2" s="85"/>
+      <c r="E2" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
+      <c r="A3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="87"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="88" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="146" t="s">
+      <c r="G4" s="89"/>
+      <c r="H4" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="91" t="s">
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="90" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="71.150000000000006">
-      <c r="A5" s="68"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="65" t="s">
+      <c r="A5" s="67"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="98" t="s">
+      <c r="K5" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="99" t="s">
+      <c r="L5" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="65" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="93"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="68"/>
+      <c r="A8" s="67"/>
       <c r="C8" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="103">
+      <c r="E8" s="102">
         <v>10848</v>
       </c>
-      <c r="F8" s="103">
+      <c r="F8" s="102">
         <v>9441.0000000000018</v>
       </c>
-      <c r="G8" s="104">
+      <c r="G8" s="103">
         <v>1356</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="102">
         <v>51</v>
       </c>
-      <c r="I8" s="104">
+      <c r="I8" s="103">
         <v>48</v>
       </c>
-      <c r="J8" s="104">
+      <c r="J8" s="103">
         <v>0</v>
       </c>
-      <c r="K8" s="104">
+      <c r="K8" s="103">
         <v>0</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="104">
         <v>0</v>
       </c>
-      <c r="M8" s="105">
+      <c r="M8" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="68"/>
+      <c r="A9" s="67"/>
       <c r="C9" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="103">
+      <c r="E9" s="102">
         <v>17564</v>
       </c>
-      <c r="F9" s="103">
+      <c r="F9" s="102">
         <v>15285.5</v>
       </c>
-      <c r="G9" s="104">
+      <c r="G9" s="103">
         <v>2195.5</v>
       </c>
-      <c r="H9" s="103">
+      <c r="H9" s="102">
         <v>83</v>
       </c>
-      <c r="I9" s="104">
+      <c r="I9" s="103">
         <v>75</v>
       </c>
-      <c r="J9" s="104">
+      <c r="J9" s="103">
         <v>0</v>
       </c>
-      <c r="K9" s="104">
+      <c r="K9" s="103">
         <v>0</v>
       </c>
-      <c r="L9" s="105">
+      <c r="L9" s="104">
         <v>0</v>
       </c>
-      <c r="M9" s="105">
+      <c r="M9" s="104">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="68"/>
+      <c r="A10" s="67"/>
       <c r="C10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="103">
+      <c r="E10" s="102">
         <v>26475</v>
       </c>
-      <c r="F10" s="103">
+      <c r="F10" s="102">
         <v>23041.625</v>
       </c>
-      <c r="G10" s="104">
+      <c r="G10" s="103">
         <v>3309.375</v>
       </c>
-      <c r="H10" s="103">
+      <c r="H10" s="102">
         <v>124</v>
       </c>
-      <c r="I10" s="104">
+      <c r="I10" s="103">
         <v>105</v>
       </c>
-      <c r="J10" s="104">
+      <c r="J10" s="103">
         <v>0</v>
       </c>
-      <c r="K10" s="104">
+      <c r="K10" s="103">
         <v>0</v>
       </c>
-      <c r="L10" s="105">
+      <c r="L10" s="104">
         <v>0</v>
       </c>
-      <c r="M10" s="105">
+      <c r="M10" s="104">
         <v>19.000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="86"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="86"/>
+      <c r="A14" s="85"/>
       <c r="C14" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="95">
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="94">
         <v>1.4</v>
       </c>
-      <c r="H14" s="101">
+      <c r="H14" s="100">
         <v>0.7</v>
       </c>
-      <c r="I14" s="95">
+      <c r="I14" s="94">
         <v>1</v>
       </c>
-      <c r="J14" s="95">
+      <c r="J14" s="94">
         <v>0.7</v>
       </c>
-      <c r="K14" s="95">
+      <c r="K14" s="94">
         <v>0</v>
       </c>
-      <c r="L14" s="95">
+      <c r="L14" s="94">
         <v>1</v>
       </c>
-      <c r="M14" s="108"/>
+      <c r="M14" s="107"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="68"/>
+      <c r="A15" s="67"/>
       <c r="C15" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="109">
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="108">
         <v>146.04910595941811</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="109">
         <v>146.04910595941811</v>
       </c>
-      <c r="I15" s="109">
+      <c r="I15" s="108">
         <v>146.04910595941811</v>
       </c>
-      <c r="J15" s="109">
+      <c r="J15" s="108">
         <v>146.04910595941811</v>
       </c>
-      <c r="K15" s="109">
+      <c r="K15" s="108">
         <v>146.04910595941811</v>
       </c>
-      <c r="L15" s="109">
+      <c r="L15" s="108">
         <v>146.04910595941811</v>
       </c>
-      <c r="M15" s="108"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
+      <c r="M15" s="107"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="68"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="68"/>
+      <c r="A17" s="67"/>
       <c r="C17" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="112"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="113">
+      <c r="E17" s="111"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="112">
         <v>0.1</v>
       </c>
-      <c r="H17" s="114">
+      <c r="H17" s="113">
         <v>0.3</v>
       </c>
-      <c r="I17" s="113">
+      <c r="I17" s="112">
         <v>0</v>
       </c>
-      <c r="J17" s="113">
+      <c r="J17" s="112">
         <v>0.3</v>
       </c>
-      <c r="K17" s="113">
+      <c r="K17" s="112">
         <v>0</v>
       </c>
-      <c r="L17" s="115">
+      <c r="L17" s="114">
         <v>0</v>
       </c>
-      <c r="M17" s="116"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
+      <c r="M17" s="115"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="68"/>
+      <c r="A18" s="67"/>
       <c r="C18" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="109">
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="108">
         <v>700.51261550784761</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="109">
         <v>700.51261550784761</v>
       </c>
-      <c r="I18" s="109">
+      <c r="I18" s="108">
         <v>700.51261550784761</v>
       </c>
-      <c r="J18" s="109">
+      <c r="J18" s="108">
         <v>610.1127662196177</v>
       </c>
-      <c r="K18" s="109">
+      <c r="K18" s="108">
         <v>610.1127662196177</v>
       </c>
-      <c r="L18" s="109">
+      <c r="L18" s="108">
         <v>700.51261550784761</v>
       </c>
-      <c r="M18" s="108"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
+      <c r="M18" s="107"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="68"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="68"/>
+      <c r="A20" s="67"/>
       <c r="C20" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="113">
+      <c r="E20" s="111"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="112">
         <v>0.3</v>
       </c>
-      <c r="H20" s="114">
+      <c r="H20" s="113">
         <v>0.2</v>
       </c>
-      <c r="I20" s="113">
+      <c r="I20" s="112">
         <v>0</v>
       </c>
-      <c r="J20" s="113">
+      <c r="J20" s="112">
         <v>0.2</v>
       </c>
-      <c r="K20" s="113">
+      <c r="K20" s="112">
         <v>0</v>
       </c>
-      <c r="L20" s="115">
+      <c r="L20" s="114">
         <v>0</v>
       </c>
-      <c r="M20" s="116"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
+      <c r="M20" s="115"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="68"/>
+      <c r="A21" s="67"/>
       <c r="C21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="109">
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="108">
         <v>805.53178028057312</v>
       </c>
-      <c r="H21" s="110">
+      <c r="H21" s="109">
         <v>805.53178028057312</v>
       </c>
-      <c r="I21" s="109">
+      <c r="I21" s="108">
         <v>805.53178028057312</v>
       </c>
-      <c r="J21" s="109">
+      <c r="J21" s="108">
         <v>701.59219572824111</v>
       </c>
-      <c r="K21" s="109">
+      <c r="K21" s="108">
         <v>701.59219572824111</v>
       </c>
-      <c r="L21" s="109">
+      <c r="L21" s="108">
         <v>805.53178028057312</v>
       </c>
-      <c r="M21" s="108"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
+      <c r="M21" s="107"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="68"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="112"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="96"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="95"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="110"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="68"/>
+      <c r="A23" s="67"/>
       <c r="C23" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="112"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="113">
+      <c r="E23" s="111"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="112">
         <v>0</v>
       </c>
-      <c r="H23" s="114">
+      <c r="H23" s="113">
         <v>1</v>
       </c>
-      <c r="I23" s="113">
+      <c r="I23" s="112">
         <v>0</v>
       </c>
-      <c r="J23" s="113">
+      <c r="J23" s="112">
         <v>1</v>
       </c>
-      <c r="K23" s="113">
+      <c r="K23" s="112">
         <v>1</v>
       </c>
-      <c r="L23" s="115">
+      <c r="L23" s="114">
         <v>0</v>
       </c>
-      <c r="M23" s="116"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
+      <c r="M23" s="115"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="68"/>
+      <c r="A24" s="67"/>
       <c r="C24" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="109">
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="108">
         <v>0</v>
       </c>
-      <c r="H24" s="110">
+      <c r="H24" s="109">
         <v>17415.991076614333</v>
       </c>
-      <c r="I24" s="109">
+      <c r="I24" s="108">
         <v>0</v>
       </c>
-      <c r="J24" s="109">
+      <c r="J24" s="108">
         <v>122800.50522171934</v>
       </c>
-      <c r="K24" s="109">
+      <c r="K24" s="108">
         <v>0</v>
       </c>
-      <c r="L24" s="122">
+      <c r="L24" s="121">
         <v>0</v>
       </c>
-      <c r="M24" s="96"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
+      <c r="M24" s="95"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="68"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="96"/>
+      <c r="A25" s="67"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="95"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68" t="s">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="112"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="119">
+      <c r="E26" s="111"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="118">
         <f>(G14*G15+G17*G18+G20*G21+G23*G24)*1.275864102</f>
         <v>658.57495034844158</v>
       </c>
-      <c r="H26" s="120">
+      <c r="H26" s="119">
         <f>(H14*H15+H17*H18+H20*H21+H23*H24)*1.275864102</f>
         <v>22824.552469433933</v>
       </c>
-      <c r="I26" s="119">
+      <c r="I26" s="118">
         <f>(I14*I15+I17*I18+I20*I21+I23*I24)*1.275864102</f>
         <v>186.33881142281584</v>
       </c>
-      <c r="J26" s="119">
+      <c r="J26" s="118">
         <f>(J14*J15+J17*J18+J20*J21+J23*J24)*1.275864102</f>
         <v>157219.74704018328</v>
       </c>
-      <c r="K26" s="119">
+      <c r="K26" s="118">
         <f>(K14*K15+K17*K18+K20*K21+K23*K24)*1.275864102</f>
         <v>0</v>
       </c>
-      <c r="L26" s="121">
+      <c r="L26" s="120">
         <v>0</v>
       </c>
-      <c r="M26" s="116"/>
+      <c r="M26" s="115"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="68"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
+      <c r="A27" s="67"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="125"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="68"/>
+      <c r="A29" s="67"/>
       <c r="C29" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="114">
+      <c r="E29" s="100"/>
+      <c r="F29" s="113">
         <v>0.44459599999999999</v>
       </c>
-      <c r="G29" s="113">
+      <c r="G29" s="112">
         <v>0.458895</v>
       </c>
-      <c r="H29" s="114">
+      <c r="H29" s="113">
         <v>0.43029200000000001</v>
       </c>
-      <c r="I29" s="113">
+      <c r="I29" s="112">
         <v>0.43029200000000001</v>
       </c>
-      <c r="J29" s="113">
+      <c r="J29" s="112">
         <v>0.43029200000000001</v>
       </c>
-      <c r="K29" s="113">
+      <c r="K29" s="112">
         <v>0.43029200000000001</v>
       </c>
-      <c r="L29" s="115">
+      <c r="L29" s="114">
         <v>0.43029200000000001</v>
       </c>
-      <c r="M29" s="96"/>
+      <c r="M29" s="95"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="68"/>
+      <c r="A30" s="67"/>
       <c r="C30" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="101"/>
-      <c r="F30" s="114">
+      <c r="E30" s="100"/>
+      <c r="F30" s="113">
         <v>0.5</v>
       </c>
-      <c r="G30" s="113">
+      <c r="G30" s="112">
         <v>1.6666666666666667</v>
       </c>
-      <c r="H30" s="114">
+      <c r="H30" s="113">
         <v>6.4285714285714288</v>
       </c>
-      <c r="I30" s="113">
+      <c r="I30" s="112">
         <v>4.2857142857142856</v>
       </c>
-      <c r="J30" s="113">
+      <c r="J30" s="112">
         <v>5</v>
       </c>
-      <c r="K30" s="113">
+      <c r="K30" s="112">
         <v>5</v>
       </c>
-      <c r="L30" s="115">
+      <c r="L30" s="114">
         <v>30</v>
       </c>
-      <c r="M30" s="96"/>
+      <c r="M30" s="95"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="68"/>
+      <c r="A31" s="67"/>
       <c r="C31" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="101"/>
-      <c r="F31" s="110">
+      <c r="E31" s="100"/>
+      <c r="F31" s="109">
         <v>274.09806790707904</v>
       </c>
-      <c r="G31" s="109">
+      <c r="G31" s="108">
         <v>276.04102970025463</v>
       </c>
-      <c r="H31" s="110">
+      <c r="H31" s="109">
         <v>283.20423823894816</v>
       </c>
-      <c r="I31" s="109">
+      <c r="I31" s="108">
         <v>283.20423823894816</v>
       </c>
-      <c r="J31" s="109">
+      <c r="J31" s="108">
         <v>283.20423823894816</v>
       </c>
-      <c r="K31" s="109">
+      <c r="K31" s="108">
         <v>283.20423823894816</v>
       </c>
-      <c r="L31" s="122">
+      <c r="L31" s="121">
         <v>277.78111194876061</v>
       </c>
-      <c r="M31" s="96"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
+      <c r="M31" s="95"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="110"/>
+      <c r="T31" s="110"/>
+      <c r="U31" s="110"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="68"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="96"/>
+      <c r="A32" s="67"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="95"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="68"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
+      <c r="A33" s="67"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="128"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="127"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="68"/>
+      <c r="A35" s="67"/>
       <c r="C35" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="101"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="129">
+      <c r="E35" s="100"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="128">
         <v>1764112.0887260665</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="68"/>
+      <c r="A36" s="67"/>
       <c r="C36" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="129">
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="128">
         <v>9702616.4879933652</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1">
-      <c r="A37" s="130"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="131" t="s">
+      <c r="A37" s="129"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="131"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="134">
+      <c r="D37" s="130"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="130"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="133">
         <v>17641120.887260664</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickTop="1">
-      <c r="D38" s="135"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="135"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="135"/>
-      <c r="N38" s="95"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="94"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="52" t="s">
@@ -4168,20 +4171,20 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="105" customHeight="1">
-      <c r="A41" s="149" t="s">
+      <c r="A41" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="149"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
     </row>
     <row r="43" spans="1:14" ht="20.399999999999999" customHeight="1">
       <c r="A43" s="52" t="s">
@@ -4190,48 +4193,48 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1"/>
     <row r="45" spans="1:14">
-      <c r="A45" s="145" t="s">
+      <c r="A45" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="145"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145"/>
-      <c r="E45" s="145"/>
-      <c r="F45" s="145"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
     </row>
     <row r="46" spans="1:14" ht="38.25" customHeight="1">
-      <c r="A46" s="137"/>
-      <c r="C46" s="145" t="s">
+      <c r="A46" s="136"/>
+      <c r="C46" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="145"/>
-      <c r="E46" s="145"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="145"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="144"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="C47" s="138"/>
+      <c r="C47" s="137"/>
     </row>
     <row r="48" spans="1:14" ht="37.5" customHeight="1">
-      <c r="C48" s="145" t="s">
+      <c r="C48" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="145"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="145"/>
-      <c r="G48" s="145"/>
-      <c r="H48" s="145"/>
-      <c r="I48" s="145"/>
-      <c r="J48" s="145"/>
-      <c r="K48" s="145"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="5">
